--- a/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.231</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.231</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T09:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -135,7 +141,7 @@
     <t>ARS-24</t>
   </si>
   <si>
-    <t>ARS-24 : Centre-Val-de-Loire</t>
+    <t>ARS-24 : Centre-Val de Loire</t>
   </si>
   <si>
     <t>ARS-27</t>
@@ -162,6 +168,12 @@
     <t>ARS-41 : Lorraine</t>
   </si>
   <si>
+    <t>ARS-44</t>
+  </si>
+  <si>
+    <t>ARS-44 : Grand Est</t>
+  </si>
+  <si>
     <t>ARS-52</t>
   </si>
   <si>
@@ -207,10 +219,7 @@
     <t>AT-975</t>
   </si>
   <si>
-    <t>Agence territoriale de santé (ATS) de Saint-Pierre-Et-Miquelon</t>
-  </si>
-  <si>
-    <t/>
+    <t>AT-975 : ATS de Saint-Pierre-Et-Miquelon</t>
   </si>
   <si>
     <t>System URI</t>
@@ -350,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -456,20 +465,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +496,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,178 +508,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2023-07-28T09:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,154 +72,145 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Liste des autorités d'enregistrement pour EPARS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ARS-01</t>
+  </si>
+  <si>
+    <t>ARS-01 : Guadeloupe</t>
+  </si>
+  <si>
+    <t>ARS-02</t>
+  </si>
+  <si>
+    <t>ARS-02 : Martinique</t>
+  </si>
+  <si>
+    <t>ARS-03</t>
+  </si>
+  <si>
+    <t>ARS-03 : Guyane</t>
+  </si>
+  <si>
+    <t>ARS-05</t>
+  </si>
+  <si>
+    <t>ARS-05 : La Réunion</t>
+  </si>
+  <si>
+    <t>ARS-06</t>
+  </si>
+  <si>
+    <t>ARS-06 : Mayotte</t>
+  </si>
+  <si>
+    <t>ARS-11</t>
+  </si>
+  <si>
+    <t>ARS-11 : Ile-de-France</t>
+  </si>
+  <si>
+    <t>ARS-24</t>
+  </si>
+  <si>
+    <t>ARS-24 : Centre-Val-de-Loire</t>
+  </si>
+  <si>
+    <t>ARS-27</t>
+  </si>
+  <si>
+    <t>ARS-27 : Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>ARS-28</t>
+  </si>
+  <si>
+    <t>ARS-28 : Normandie</t>
+  </si>
+  <si>
+    <t>ARS-32</t>
+  </si>
+  <si>
+    <t>ARS-32 : Hauts-de-France</t>
+  </si>
+  <si>
+    <t>ARS-41</t>
+  </si>
+  <si>
+    <t>ARS-41 : Lorraine</t>
+  </si>
+  <si>
+    <t>ARS-52</t>
+  </si>
+  <si>
+    <t>ARS-52 : Pays de la Loire</t>
+  </si>
+  <si>
+    <t>ARS-53</t>
+  </si>
+  <si>
+    <t>ARS-53 : Bretagne</t>
+  </si>
+  <si>
+    <t>ARS-75</t>
+  </si>
+  <si>
+    <t>ARS-75 : Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>ARS-76</t>
+  </si>
+  <si>
+    <t>ARS-76 : Occitanie</t>
+  </si>
+  <si>
+    <t>ARS-84</t>
+  </si>
+  <si>
+    <t>ARS-84 : Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>ARS-93</t>
+  </si>
+  <si>
+    <t>ARS-93 : Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>ARS-94</t>
+  </si>
+  <si>
+    <t>ARS-94 : Corse</t>
+  </si>
+  <si>
+    <t>AT-975</t>
+  </si>
+  <si>
+    <t>Agence territoriale de santé (ATS) de Saint-Pierre-Et-Miquelon</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Liste des autorités d'enregistrement pour EPARS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>ARS-01</t>
-  </si>
-  <si>
-    <t>ARS-01 : Guadeloupe</t>
-  </si>
-  <si>
-    <t>ARS-02</t>
-  </si>
-  <si>
-    <t>ARS-02 : Martinique</t>
-  </si>
-  <si>
-    <t>ARS-03</t>
-  </si>
-  <si>
-    <t>ARS-03 : Guyane</t>
-  </si>
-  <si>
-    <t>ARS-05</t>
-  </si>
-  <si>
-    <t>ARS-05 : La Réunion</t>
-  </si>
-  <si>
-    <t>ARS-06</t>
-  </si>
-  <si>
-    <t>ARS-06 : Mayotte</t>
-  </si>
-  <si>
-    <t>ARS-11</t>
-  </si>
-  <si>
-    <t>ARS-11 : Ile-de-France</t>
-  </si>
-  <si>
-    <t>ARS-24</t>
-  </si>
-  <si>
-    <t>ARS-24 : Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>ARS-27</t>
-  </si>
-  <si>
-    <t>ARS-27 : Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>ARS-28</t>
-  </si>
-  <si>
-    <t>ARS-28 : Normandie</t>
-  </si>
-  <si>
-    <t>ARS-32</t>
-  </si>
-  <si>
-    <t>ARS-32 : Hauts-de-France</t>
-  </si>
-  <si>
-    <t>ARS-41</t>
-  </si>
-  <si>
-    <t>ARS-41 : Lorraine</t>
-  </si>
-  <si>
-    <t>ARS-44</t>
-  </si>
-  <si>
-    <t>ARS-44 : Grand Est</t>
-  </si>
-  <si>
-    <t>ARS-52</t>
-  </si>
-  <si>
-    <t>ARS-52 : Pays de la Loire</t>
-  </si>
-  <si>
-    <t>ARS-53</t>
-  </si>
-  <si>
-    <t>ARS-53 : Bretagne</t>
-  </si>
-  <si>
-    <t>ARS-75</t>
-  </si>
-  <si>
-    <t>ARS-75 : Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>ARS-76</t>
-  </si>
-  <si>
-    <t>ARS-76 : Occitanie</t>
-  </si>
-  <si>
-    <t>ARS-84</t>
-  </si>
-  <si>
-    <t>ARS-84 : Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>ARS-93</t>
-  </si>
-  <si>
-    <t>ARS-93 : Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>ARS-94</t>
-  </si>
-  <si>
-    <t>ARS-94 : Corse</t>
-  </si>
-  <si>
-    <t>AT-975</t>
-  </si>
-  <si>
-    <t>AT-975 : ATS de Saint-Pierre-Et-Miquelon</t>
   </si>
   <si>
     <t>System URI</t>
@@ -359,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -465,28 +456,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -508,186 +491,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,151 +75,148 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Liste des autorités d'enregistrement pour EPARS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ARS-01</t>
+  </si>
+  <si>
+    <t>ARS-01 : Guadeloupe</t>
+  </si>
+  <si>
+    <t>ARS-02</t>
+  </si>
+  <si>
+    <t>ARS-02 : Martinique</t>
+  </si>
+  <si>
+    <t>ARS-03</t>
+  </si>
+  <si>
+    <t>ARS-03 : Guyane</t>
+  </si>
+  <si>
+    <t>ARS-05</t>
+  </si>
+  <si>
+    <t>ARS-05 : La Réunion</t>
+  </si>
+  <si>
+    <t>ARS-06</t>
+  </si>
+  <si>
+    <t>ARS-06 : Mayotte</t>
+  </si>
+  <si>
+    <t>ARS-11</t>
+  </si>
+  <si>
+    <t>ARS-11 : Ile-de-France</t>
+  </si>
+  <si>
+    <t>ARS-24</t>
+  </si>
+  <si>
+    <t>ARS-24 : Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>ARS-27</t>
+  </si>
+  <si>
+    <t>ARS-27 : Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>ARS-28</t>
+  </si>
+  <si>
+    <t>ARS-28 : Normandie</t>
+  </si>
+  <si>
+    <t>ARS-32</t>
+  </si>
+  <si>
+    <t>ARS-32 : Hauts-de-France</t>
+  </si>
+  <si>
+    <t>ARS-41</t>
+  </si>
+  <si>
+    <t>ARS-41 : Lorraine</t>
+  </si>
+  <si>
+    <t>ARS-44</t>
+  </si>
+  <si>
+    <t>ARS-44 : Grand Est</t>
+  </si>
+  <si>
+    <t>ARS-52</t>
+  </si>
+  <si>
+    <t>ARS-52 : Pays de la Loire</t>
+  </si>
+  <si>
+    <t>ARS-53</t>
+  </si>
+  <si>
+    <t>ARS-53 : Bretagne</t>
+  </si>
+  <si>
+    <t>ARS-75</t>
+  </si>
+  <si>
+    <t>ARS-75 : Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>ARS-76</t>
+  </si>
+  <si>
+    <t>ARS-76 : Occitanie</t>
+  </si>
+  <si>
+    <t>ARS-84</t>
+  </si>
+  <si>
+    <t>ARS-84 : Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>ARS-93</t>
+  </si>
+  <si>
+    <t>ARS-93 : Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>ARS-94</t>
+  </si>
+  <si>
+    <t>ARS-94 : Corse</t>
+  </si>
+  <si>
+    <t>AT-975</t>
+  </si>
+  <si>
+    <t>AT-975 : ATS de Saint-Pierre-Et-Miquelon</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Liste des autorités d'enregistrement pour EPARS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>ARS-01</t>
-  </si>
-  <si>
-    <t>ARS-01 : Guadeloupe</t>
-  </si>
-  <si>
-    <t>ARS-02</t>
-  </si>
-  <si>
-    <t>ARS-02 : Martinique</t>
-  </si>
-  <si>
-    <t>ARS-03</t>
-  </si>
-  <si>
-    <t>ARS-03 : Guyane</t>
-  </si>
-  <si>
-    <t>ARS-05</t>
-  </si>
-  <si>
-    <t>ARS-05 : La Réunion</t>
-  </si>
-  <si>
-    <t>ARS-06</t>
-  </si>
-  <si>
-    <t>ARS-06 : Mayotte</t>
-  </si>
-  <si>
-    <t>ARS-11</t>
-  </si>
-  <si>
-    <t>ARS-11 : Ile-de-France</t>
-  </si>
-  <si>
-    <t>ARS-24</t>
-  </si>
-  <si>
-    <t>ARS-24 : Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>ARS-27</t>
-  </si>
-  <si>
-    <t>ARS-27 : Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>ARS-28</t>
-  </si>
-  <si>
-    <t>ARS-28 : Normandie</t>
-  </si>
-  <si>
-    <t>ARS-32</t>
-  </si>
-  <si>
-    <t>ARS-32 : Hauts-de-France</t>
-  </si>
-  <si>
-    <t>ARS-41</t>
-  </si>
-  <si>
-    <t>ARS-41 : Lorraine</t>
-  </si>
-  <si>
-    <t>ARS-44</t>
-  </si>
-  <si>
-    <t>ARS-44 : Grand Est</t>
-  </si>
-  <si>
-    <t>ARS-52</t>
-  </si>
-  <si>
-    <t>ARS-52 : Pays de la Loire</t>
-  </si>
-  <si>
-    <t>ARS-53</t>
-  </si>
-  <si>
-    <t>ARS-53 : Bretagne</t>
-  </si>
-  <si>
-    <t>ARS-75</t>
-  </si>
-  <si>
-    <t>ARS-75 : Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>ARS-76</t>
-  </si>
-  <si>
-    <t>ARS-76 : Occitanie</t>
-  </si>
-  <si>
-    <t>ARS-84</t>
-  </si>
-  <si>
-    <t>ARS-84 : Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>ARS-93</t>
-  </si>
-  <si>
-    <t>ARS-93 : Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>ARS-94</t>
-  </si>
-  <si>
-    <t>ARS-94 : Corse</t>
-  </si>
-  <si>
-    <t>AT-975</t>
-  </si>
-  <si>
-    <t>AT-975 : ATS de Saint-Pierre-Et-Miquelon</t>
   </si>
   <si>
     <t>System URI</t>
@@ -359,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -465,28 +462,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -508,186 +497,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J170-AutoriteEnregistrement-EPARS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>ARS-32 : Hauts-de-France</t>
-  </si>
-  <si>
-    <t>ARS-41</t>
-  </si>
-  <si>
-    <t>ARS-41 : Lorraine</t>
   </si>
   <si>
     <t>ARS-44</t>
@@ -485,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,23 +654,15 @@
         <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>67</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
